--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H2">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I2">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J2">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N2">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O2">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P2">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q2">
-        <v>0.1394414528924444</v>
+        <v>0.4475127134463333</v>
       </c>
       <c r="R2">
-        <v>1.254973076032</v>
+        <v>4.027614421017</v>
       </c>
       <c r="S2">
-        <v>0.0001223395054603133</v>
+        <v>0.0004760307870782358</v>
       </c>
       <c r="T2">
-        <v>0.0001224439044756004</v>
+        <v>0.0004779075349162878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H3">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I3">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J3">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P3">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q3">
-        <v>0.1099212920604444</v>
+        <v>0.08746853533866665</v>
       </c>
       <c r="R3">
-        <v>0.989291628544</v>
+        <v>0.7872168180479999</v>
       </c>
       <c r="S3">
-        <v>9.643987660259161E-05</v>
+        <v>9.304253146506252E-05</v>
       </c>
       <c r="T3">
-        <v>9.652217404293066E-05</v>
+        <v>9.340935095345254E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H4">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I4">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J4">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N4">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O4">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P4">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q4">
-        <v>96.22575313550577</v>
+        <v>104.9308145693767</v>
       </c>
       <c r="R4">
-        <v>866.0317782195519</v>
+        <v>944.3773311243899</v>
       </c>
       <c r="S4">
-        <v>0.08442404182509661</v>
+        <v>0.1116176071592454</v>
       </c>
       <c r="T4">
-        <v>0.0844960854940647</v>
+        <v>0.1120576587454261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H5">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I5">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J5">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N5">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P5">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q5">
-        <v>0.592106526432</v>
+        <v>0.9418775498139997</v>
       </c>
       <c r="R5">
-        <v>3.552639158592</v>
+        <v>5.651265298883999</v>
       </c>
       <c r="S5">
-        <v>0.0005194869826793078</v>
+        <v>0.001001899382737977</v>
       </c>
       <c r="T5">
-        <v>0.0003466201929576891</v>
+        <v>0.0006705662424025298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H6">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I6">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J6">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N6">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O6">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P6">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q6">
-        <v>134.4159155083289</v>
+        <v>77.65751041753732</v>
       </c>
       <c r="R6">
-        <v>1209.74323957496</v>
+        <v>698.917593757836</v>
       </c>
       <c r="S6">
-        <v>0.1179303305306799</v>
+        <v>0.08260629183449958</v>
       </c>
       <c r="T6">
-        <v>0.1180309669549778</v>
+        <v>0.08293196652575523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.495231</v>
       </c>
       <c r="I7">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J7">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N7">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O7">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P7">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q7">
-        <v>0.167676328404</v>
+        <v>0.6762623425469999</v>
       </c>
       <c r="R7">
-        <v>1.509086955636</v>
+        <v>6.086361082923</v>
       </c>
       <c r="S7">
-        <v>0.0001471114842023992</v>
+        <v>0.0007193576529142014</v>
       </c>
       <c r="T7">
-        <v>0.0001472370225068936</v>
+        <v>0.0007221937151113111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.495231</v>
       </c>
       <c r="I8">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J8">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.340352</v>
       </c>
       <c r="O8">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P8">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q8">
         <v>0.132178762368</v>
@@ -948,10 +948,10 @@
         <v>1.189608861312</v>
       </c>
       <c r="S8">
-        <v>0.0001159675554508912</v>
+        <v>0.000140601950278697</v>
       </c>
       <c r="T8">
-        <v>0.0001160665169314758</v>
+        <v>0.0001411562724220841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>3.495231</v>
       </c>
       <c r="I9">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J9">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N9">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O9">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P9">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q9">
-        <v>115.710075081594</v>
+        <v>158.56702241949</v>
       </c>
       <c r="R9">
-        <v>1041.390675734346</v>
+        <v>1427.10320177541</v>
       </c>
       <c r="S9">
-        <v>0.101518688084646</v>
+        <v>0.1686718214231341</v>
       </c>
       <c r="T9">
-        <v>0.1016053195536012</v>
+        <v>0.1693368088247664</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>3.495231</v>
       </c>
       <c r="I10">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J10">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N10">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O10">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P10">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q10">
-        <v>0.711999526086</v>
+        <v>1.423325637666</v>
       </c>
       <c r="R10">
-        <v>4.271997156516</v>
+        <v>8.539953825995999</v>
       </c>
       <c r="S10">
-        <v>0.0006246755760392571</v>
+        <v>0.001514028100674353</v>
       </c>
       <c r="T10">
-        <v>0.0004168057639980351</v>
+        <v>0.001013331430134792</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.495231</v>
       </c>
       <c r="I11">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J11">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N11">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O11">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P11">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q11">
-        <v>161.633192454495</v>
+        <v>117.352755203076</v>
       </c>
       <c r="R11">
-        <v>1454.698732090455</v>
+        <v>1056.174796827684</v>
       </c>
       <c r="S11">
-        <v>0.1418095151813067</v>
+        <v>0.1248311450079486</v>
       </c>
       <c r="T11">
-        <v>0.1419305290246075</v>
+        <v>0.1253232908688354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H12">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I12">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J12">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N12">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O12">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P12">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q12">
-        <v>0.1958486472684444</v>
+        <v>0.6991740282352223</v>
       </c>
       <c r="R12">
-        <v>1.762637825416</v>
+        <v>6.292566254117001</v>
       </c>
       <c r="S12">
-        <v>0.0001718285786248509</v>
+        <v>0.0007437294024617405</v>
       </c>
       <c r="T12">
-        <v>0.0001719752093827498</v>
+        <v>0.0007466615501002007</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H13">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I13">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J13">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.340352</v>
       </c>
       <c r="O13">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P13">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q13">
-        <v>0.1543869194524444</v>
+        <v>0.1366569627164445</v>
       </c>
       <c r="R13">
-        <v>1.389482275072</v>
+        <v>1.229912664448</v>
       </c>
       <c r="S13">
-        <v>0.0001354519691495318</v>
+        <v>0.00014536552720626</v>
       </c>
       <c r="T13">
-        <v>0.0001355675577498348</v>
+        <v>0.0001459386297162596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H14">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I14">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J14">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N14">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O14">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P14">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q14">
-        <v>135.1512279387418</v>
+        <v>163.9392538001545</v>
       </c>
       <c r="R14">
-        <v>1216.361051448676</v>
+        <v>1475.45328420139</v>
       </c>
       <c r="S14">
-        <v>0.1185754597747428</v>
+        <v>0.174386402161656</v>
       </c>
       <c r="T14">
-        <v>0.1186766467232361</v>
+        <v>0.1750739192553535</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H15">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I15">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J15">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N15">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O15">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P15">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q15">
-        <v>0.8316268931159999</v>
+        <v>1.471547736680667</v>
       </c>
       <c r="R15">
-        <v>4.989761358696</v>
+        <v>8.829286420084001</v>
       </c>
       <c r="S15">
-        <v>0.0007296311155749656</v>
+        <v>0.001565323188073628</v>
       </c>
       <c r="T15">
-        <v>0.00048683583323714</v>
+        <v>0.001047662975401386</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H16">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I16">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J16">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N16">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O16">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P16">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q16">
-        <v>188.7901673253589</v>
+        <v>121.3286522369596</v>
       </c>
       <c r="R16">
-        <v>1699.11150592823</v>
+        <v>1091.957870132636</v>
       </c>
       <c r="S16">
-        <v>0.165635793569716</v>
+        <v>0.1290604089763534</v>
       </c>
       <c r="T16">
-        <v>0.1657771396842022</v>
+        <v>0.1295692286789847</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H17">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I17">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J17">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N17">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O17">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P17">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q17">
-        <v>0.1836239558573333</v>
+        <v>0.01525726952383333</v>
       </c>
       <c r="R17">
-        <v>1.652615602716</v>
+        <v>0.09154361714299999</v>
       </c>
       <c r="S17">
-        <v>0.0001611031976809658</v>
+        <v>1.622955013761E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001612406758825837</v>
+        <v>1.086235667889096E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H18">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I18">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J18">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.340352</v>
       </c>
       <c r="O18">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P18">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q18">
-        <v>0.1447502307413333</v>
+        <v>0.002982107498666666</v>
       </c>
       <c r="R18">
-        <v>1.302752076672</v>
+        <v>0.017892644992</v>
       </c>
       <c r="S18">
-        <v>0.0001269971825223322</v>
+        <v>3.172144471181467E-06</v>
       </c>
       <c r="T18">
-        <v>0.0001271055561891187</v>
+        <v>2.123100418112961E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H19">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I19">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J19">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N19">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O19">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P19">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q19">
-        <v>126.7152132997473</v>
+        <v>3.577457513801667</v>
       </c>
       <c r="R19">
-        <v>1140.436919697726</v>
+        <v>21.46474508281</v>
       </c>
       <c r="S19">
-        <v>0.1111740892526887</v>
+        <v>0.003805433599682931</v>
       </c>
       <c r="T19">
-        <v>0.1112689602054505</v>
+        <v>0.002546957662233711</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H20">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I20">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J20">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N20">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O20">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P20">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q20">
-        <v>0.779717511666</v>
+        <v>0.032111891359</v>
       </c>
       <c r="R20">
-        <v>4.678305069996</v>
+        <v>0.128447565436</v>
       </c>
       <c r="S20">
-        <v>0.0006840882162174686</v>
+        <v>3.415824502610188E-05</v>
       </c>
       <c r="T20">
-        <v>0.0004564479908282122</v>
+        <v>1.524129495693308E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0262855</v>
+      </c>
+      <c r="H21">
+        <v>0.052571</v>
+      </c>
+      <c r="I21">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J21">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>100.7253213333333</v>
+      </c>
+      <c r="N21">
+        <v>302.175964</v>
+      </c>
+      <c r="O21">
+        <v>0.4219022240948613</v>
+      </c>
+      <c r="P21">
+        <v>0.4226230904617871</v>
+      </c>
+      <c r="Q21">
+        <v>2.647615433907334</v>
+      </c>
+      <c r="R21">
+        <v>15.885692603444</v>
+      </c>
+      <c r="S21">
+        <v>0.002816336655951868</v>
+      </c>
+      <c r="T21">
+        <v>0.001884960028182843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.312438</v>
+      </c>
+      <c r="I22">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J22">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.5804443333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.741333</v>
+      </c>
+      <c r="O22">
+        <v>0.002431273010151717</v>
+      </c>
+      <c r="P22">
+        <v>0.002435427107574628</v>
+      </c>
+      <c r="Q22">
+        <v>0.4474138444282222</v>
+      </c>
+      <c r="R22">
+        <v>4.026724599854</v>
+      </c>
+      <c r="S22">
+        <v>0.0004759256175599296</v>
+      </c>
+      <c r="T22">
+        <v>0.0004778019507679378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.312438</v>
+      </c>
+      <c r="I23">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J23">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.340352</v>
+      </c>
+      <c r="O23">
+        <v>0.0004752041289926495</v>
+      </c>
+      <c r="P23">
+        <v>0.00047601606752829</v>
+      </c>
+      <c r="Q23">
+        <v>0.08744921090844444</v>
+      </c>
+      <c r="R23">
+        <v>0.787042898176</v>
+      </c>
+      <c r="S23">
+        <v>9.302197557144851E-05</v>
+      </c>
+      <c r="T23">
+        <v>9.338871401838085E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.312438</v>
+      </c>
+      <c r="I24">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J24">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>136.1000366666667</v>
+      </c>
+      <c r="N24">
+        <v>408.30011</v>
+      </c>
+      <c r="O24">
+        <v>0.5700742118164518</v>
+      </c>
+      <c r="P24">
+        <v>0.5710482463260632</v>
+      </c>
+      <c r="Q24">
+        <v>104.9076321964645</v>
+      </c>
+      <c r="R24">
+        <v>944.1686897681801</v>
+      </c>
+      <c r="S24">
+        <v>0.1115929474727334</v>
+      </c>
+      <c r="T24">
+        <v>0.1120329018382834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.275887</v>
-      </c>
-      <c r="H21">
-        <v>3.827661</v>
-      </c>
-      <c r="I21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="J21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>138.7317683333333</v>
-      </c>
-      <c r="N21">
-        <v>416.195305</v>
-      </c>
-      <c r="O21">
-        <v>0.5806725998226211</v>
-      </c>
-      <c r="P21">
-        <v>0.5811681196254651</v>
-      </c>
-      <c r="Q21">
-        <v>177.0060597035117</v>
-      </c>
-      <c r="R21">
-        <v>1593.054537331605</v>
-      </c>
-      <c r="S21">
-        <v>0.1552969605409186</v>
-      </c>
-      <c r="T21">
-        <v>0.1554294839616776</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.312438</v>
+      </c>
+      <c r="I25">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J25">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>1.221658</v>
+      </c>
+      <c r="N25">
+        <v>2.443316</v>
+      </c>
+      <c r="O25">
+        <v>0.005117086949542552</v>
+      </c>
+      <c r="P25">
+        <v>0.003417220037046797</v>
+      </c>
+      <c r="Q25">
+        <v>0.9416694607346666</v>
+      </c>
+      <c r="R25">
+        <v>5.650016764408</v>
+      </c>
+      <c r="S25">
+        <v>0.001001678033030492</v>
+      </c>
+      <c r="T25">
+        <v>0.0006704180941511558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.312438</v>
+      </c>
+      <c r="I26">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J26">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>100.7253213333333</v>
+      </c>
+      <c r="N26">
+        <v>302.175964</v>
+      </c>
+      <c r="O26">
+        <v>0.4219022240948613</v>
+      </c>
+      <c r="P26">
+        <v>0.4226230904617871</v>
+      </c>
+      <c r="Q26">
+        <v>77.64035353780356</v>
+      </c>
+      <c r="R26">
+        <v>698.7631818402322</v>
+      </c>
+      <c r="S26">
+        <v>0.08258804162010774</v>
+      </c>
+      <c r="T26">
+        <v>0.08291364436002888</v>
       </c>
     </row>
   </sheetData>
